--- a/Pflichtenheft/Ext. files/Terminplan_Arbeitspakete_short.xlsx
+++ b/Pflichtenheft/Ext. files/Terminplan_Arbeitspakete_short.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carme\Documents\GitHub\Pro1\Pflichtenheft\Ext. files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E9688ED-263E-46C2-899C-675D929911B3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{24354546-11A0-4DB3-9292-6BDA32F1D996}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>KW 38</t>
   </si>
@@ -229,13 +223,19 @@
   </si>
   <si>
     <t>6. Reserve</t>
+  </si>
+  <si>
+    <t>3.5. KIS</t>
+  </si>
+  <si>
+    <t>2.4. Grobkonzept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,7 +272,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -736,11 +736,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -922,9 +933,15 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -982,7 +999,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1034,7 +1051,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1228,27 +1245,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0940BA2B-C0AA-4BDA-A0C9-7E2B6958E26A}">
-  <dimension ref="A1:S36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:S38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="15.75" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -1273,7 +1290,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="8"/>
       <c r="B2" s="9"/>
       <c r="C2" s="10" t="s">
@@ -1328,7 +1345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1">
       <c r="A3" s="14"/>
       <c r="B3" s="15"/>
       <c r="C3" s="16" t="s">
@@ -1383,7 +1400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1">
       <c r="A4" s="70" t="s">
         <v>34</v>
       </c>
@@ -1408,13 +1425,13 @@
       <c r="R4" s="30"/>
       <c r="S4" s="31"/>
     </row>
-    <row r="5" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="15.75" thickBot="1">
       <c r="A5" s="32" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="33">
-        <f>SUM(B6,B20,B24,B29,B35,B36)</f>
-        <v>448</v>
+        <f>SUM(B6,B20,B25,B31,B37,B38)</f>
+        <v>423</v>
       </c>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
@@ -1434,7 +1451,7 @@
       <c r="R5" s="30"/>
       <c r="S5" s="31"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1">
       <c r="A6" s="34" t="s">
         <v>37</v>
       </c>
@@ -1460,7 +1477,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="40"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="15.75" thickBot="1">
       <c r="A7" s="41" t="s">
         <v>38</v>
       </c>
@@ -1486,7 +1503,7 @@
       <c r="R7" s="43"/>
       <c r="S7" s="45"/>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1">
       <c r="A8" s="46" t="s">
         <v>39</v>
       </c>
@@ -1511,7 +1528,7 @@
       <c r="R8" s="20"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="15.75" thickBot="1">
       <c r="A9" s="46" t="s">
         <v>40</v>
       </c>
@@ -1536,7 +1553,7 @@
       <c r="R9" s="20"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15.75" thickBot="1">
       <c r="A10" s="46" t="s">
         <v>41</v>
       </c>
@@ -1561,7 +1578,7 @@
       <c r="R10" s="20"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15.75" thickBot="1">
       <c r="A11" s="49" t="s">
         <v>42</v>
       </c>
@@ -1587,7 +1604,7 @@
       <c r="R11" s="20"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1">
       <c r="A12" s="46" t="s">
         <v>43</v>
       </c>
@@ -1612,7 +1629,7 @@
       <c r="R12" s="20"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15.75" thickBot="1">
       <c r="A13" s="46" t="s">
         <v>44</v>
       </c>
@@ -1637,7 +1654,7 @@
       <c r="R13" s="20"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" thickBot="1">
       <c r="A14" s="46" t="s">
         <v>45</v>
       </c>
@@ -1662,7 +1679,7 @@
       <c r="R14" s="20"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15.75" thickBot="1">
       <c r="A15" s="46" t="s">
         <v>46</v>
       </c>
@@ -1687,7 +1704,7 @@
       <c r="R15" s="20"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1">
       <c r="A16" s="46" t="s">
         <v>47</v>
       </c>
@@ -1712,7 +1729,7 @@
       <c r="R16" s="20"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1">
       <c r="A17" s="46" t="s">
         <v>48</v>
       </c>
@@ -1737,7 +1754,7 @@
       <c r="R17" s="20"/>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="46" t="s">
         <v>49</v>
       </c>
@@ -1762,7 +1779,7 @@
       <c r="R18" s="20"/>
       <c r="S18" s="22"/>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15.75" thickBot="1">
       <c r="A19" s="50" t="s">
         <v>50</v>
       </c>
@@ -1787,7 +1804,7 @@
       <c r="R19" s="24"/>
       <c r="S19" s="26"/>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1">
       <c r="A20" s="33" t="s">
         <v>51</v>
       </c>
@@ -1813,7 +1830,7 @@
       <c r="R20" s="37"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1">
       <c r="A21" s="54" t="s">
         <v>52</v>
       </c>
@@ -1838,7 +1855,7 @@
       <c r="R21" s="43"/>
       <c r="S21" s="45"/>
     </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15.75" thickBot="1">
       <c r="A22" s="49" t="s">
         <v>53</v>
       </c>
@@ -1863,7 +1880,7 @@
       <c r="R22" s="20"/>
       <c r="S22" s="22"/>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.75" thickBot="1">
       <c r="A23" s="60" t="s">
         <v>54</v>
       </c>
@@ -1888,88 +1905,88 @@
       <c r="R23" s="24"/>
       <c r="S23" s="26"/>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="33" t="s">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A24" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="3">
+        <v>80</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="64"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="64"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="72"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="66"/>
+    </row>
+    <row r="25" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A25" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="34">
-        <f>SUM(B25:B28)</f>
+      <c r="B25" s="34">
+        <f>SUM(B26:B29)</f>
         <v>22</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="40"/>
-    </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="54" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="40"/>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A26" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>5</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="43"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="43"/>
-      <c r="G25" s="43"/>
-      <c r="H25" s="43"/>
-      <c r="I25" s="43"/>
-      <c r="J25" s="43"/>
-      <c r="K25" s="56"/>
-      <c r="L25" s="56"/>
-      <c r="M25" s="43"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="43"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="45"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49" t="s">
+      <c r="C26" s="42"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="45"/>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A27" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B27" s="3">
         <v>10</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="22"/>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="49" t="s">
-        <v>58</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="20"/>
@@ -1979,7 +1996,7 @@
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
       <c r="J27" s="20"/>
-      <c r="K27" s="48"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="48"/>
       <c r="M27" s="20"/>
       <c r="N27" s="21"/>
@@ -1989,138 +2006,138 @@
       <c r="R27" s="20"/>
       <c r="S27" s="22"/>
     </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A28" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="48"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="22"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A29" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B29" s="3">
         <v>5</v>
       </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="24"/>
-      <c r="N28" s="25"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="24"/>
-      <c r="R28" s="24"/>
-      <c r="S28" s="26"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="33" t="s">
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A30" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="C30" s="63"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="66"/>
+    </row>
+    <row r="31" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="34">
-        <f>SUM(B30:B34)</f>
-        <v>86</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
-      <c r="R29" s="36"/>
-      <c r="S29" s="53"/>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="54" t="s">
+      <c r="B31" s="34">
+        <f>SUM(B32:B36)</f>
+        <v>121</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="53"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A32" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B32" s="3">
         <v>11</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="43"/>
-      <c r="L30" s="43"/>
-      <c r="M30" s="43"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="45"/>
-    </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="C32" s="42"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="44"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="45"/>
+    </row>
+    <row r="33" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A33" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="3">
-        <v>10</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="22"/>
-    </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="3">
-        <v>25</v>
-      </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="58"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="22"/>
-    </row>
-    <row r="33" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="49" t="s">
-        <v>64</v>
-      </c>
       <c r="B33" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C33" s="19"/>
       <c r="D33" s="20"/>
@@ -2128,92 +2145,142 @@
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="20"/>
-      <c r="N33" s="58"/>
-      <c r="O33" s="48"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="20"/>
       <c r="P33" s="20"/>
       <c r="Q33" s="20"/>
       <c r="R33" s="20"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60" t="s">
+    <row r="34" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A34" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="3">
+        <v>40</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="58"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="22"/>
+    </row>
+    <row r="35" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A35" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="3">
+        <v>20</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="58"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="20"/>
+      <c r="Q35" s="20"/>
+      <c r="R35" s="20"/>
+      <c r="S35" s="22"/>
+    </row>
+    <row r="36" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A36" s="60" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B36" s="3">
         <v>20</v>
       </c>
-      <c r="C34" s="23"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51"/>
-      <c r="R34" s="51"/>
-      <c r="S34" s="61"/>
-    </row>
-    <row r="35" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="62" t="s">
+      <c r="C36" s="23"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="25"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="61"/>
+    </row>
+    <row r="37" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A37" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="27">
-        <v>160</v>
-      </c>
-      <c r="C35" s="63"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="65"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
-      <c r="R35" s="67"/>
-      <c r="S35" s="68"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="69" t="s">
+      <c r="B37" s="27">
+        <v>100</v>
+      </c>
+      <c r="C37" s="63"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="64"/>
+      <c r="G37" s="64"/>
+      <c r="H37" s="64"/>
+      <c r="I37" s="64"/>
+      <c r="J37" s="64"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="64"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="67"/>
+      <c r="Q37" s="67"/>
+      <c r="R37" s="67"/>
+      <c r="S37" s="68"/>
+    </row>
+    <row r="38" spans="1:19" ht="15.75" thickBot="1">
+      <c r="A38" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="27">
+      <c r="B38" s="27">
         <v>40</v>
       </c>
-      <c r="C36" s="63"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="64"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="64"/>
-      <c r="I36" s="64"/>
-      <c r="J36" s="64"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="64"/>
-      <c r="M36" s="64"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="66"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="64"/>
+      <c r="G38" s="64"/>
+      <c r="H38" s="64"/>
+      <c r="I38" s="64"/>
+      <c r="J38" s="64"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="66"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
